--- a/data/Limpia/eliminados_filtrado_horario.xlsx
+++ b/data/Limpia/eliminados_filtrado_horario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1004">
   <si>
     <t>Indice</t>
   </si>
@@ -2999,6 +2999,33 @@
   </si>
   <si>
     <t>34.766514S,55.736032W</t>
+  </si>
+  <si>
+    <t>34.774840S,55.761015W</t>
+  </si>
+  <si>
+    <t>34.766384S,55.736265W</t>
+  </si>
+  <si>
+    <t>34.764822S,55.752447W</t>
+  </si>
+  <si>
+    <t>34.764970S,55.753504W</t>
+  </si>
+  <si>
+    <t>34.771109S,55.762007W</t>
+  </si>
+  <si>
+    <t>34.771922S,55.761282W</t>
+  </si>
+  <si>
+    <t>34.768774S,55.769817W</t>
+  </si>
+  <si>
+    <t>34.768670S,55.769905W</t>
+  </si>
+  <si>
+    <t>34.766382S,55.736052W</t>
   </si>
 </sst>
 </file>
@@ -3360,7 +3387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I984"/>
+  <dimension ref="A1:I994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31902,6 +31929,296 @@
         <v>-55.73623</v>
       </c>
     </row>
+    <row r="985" spans="1:9">
+      <c r="A985">
+        <v>563</v>
+      </c>
+      <c r="B985" t="s">
+        <v>9</v>
+      </c>
+      <c r="C985" t="s">
+        <v>13</v>
+      </c>
+      <c r="D985" s="2">
+        <v>45698.75194444445</v>
+      </c>
+      <c r="E985" s="2">
+        <v>45698.75589120371</v>
+      </c>
+      <c r="F985">
+        <v>5.68</v>
+      </c>
+      <c r="G985" t="s">
+        <v>995</v>
+      </c>
+      <c r="H985">
+        <v>-34.77484</v>
+      </c>
+      <c r="I985">
+        <v>-55.761015</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9">
+      <c r="A986">
+        <v>564</v>
+      </c>
+      <c r="B986" t="s">
+        <v>9</v>
+      </c>
+      <c r="C986" t="s">
+        <v>14</v>
+      </c>
+      <c r="D986" s="2">
+        <v>45698.75589120371</v>
+      </c>
+      <c r="E986" s="2">
+        <v>45698.8405324074</v>
+      </c>
+      <c r="F986">
+        <v>121.88</v>
+      </c>
+      <c r="G986" t="s">
+        <v>449</v>
+      </c>
+      <c r="H986">
+        <v>-34.766479</v>
+      </c>
+      <c r="I986">
+        <v>-55.736044</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9">
+      <c r="A987">
+        <v>565</v>
+      </c>
+      <c r="B987" t="s">
+        <v>9</v>
+      </c>
+      <c r="C987" t="s">
+        <v>13</v>
+      </c>
+      <c r="D987" s="2">
+        <v>45698.8405324074</v>
+      </c>
+      <c r="E987" s="2">
+        <v>45698.8440162037</v>
+      </c>
+      <c r="F987">
+        <v>5.02</v>
+      </c>
+      <c r="G987" t="s">
+        <v>996</v>
+      </c>
+      <c r="H987">
+        <v>-34.766384</v>
+      </c>
+      <c r="I987">
+        <v>-55.736265</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9">
+      <c r="A988">
+        <v>566</v>
+      </c>
+      <c r="B988" t="s">
+        <v>9</v>
+      </c>
+      <c r="C988" t="s">
+        <v>14</v>
+      </c>
+      <c r="D988" s="2">
+        <v>45698.8440162037</v>
+      </c>
+      <c r="E988" s="2">
+        <v>45698.90736111111</v>
+      </c>
+      <c r="F988">
+        <v>91.22</v>
+      </c>
+      <c r="G988" t="s">
+        <v>997</v>
+      </c>
+      <c r="H988">
+        <v>-34.764822</v>
+      </c>
+      <c r="I988">
+        <v>-55.752447</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9">
+      <c r="A989">
+        <v>567</v>
+      </c>
+      <c r="B989" t="s">
+        <v>9</v>
+      </c>
+      <c r="C989" t="s">
+        <v>13</v>
+      </c>
+      <c r="D989" s="2">
+        <v>45698.90736111111</v>
+      </c>
+      <c r="E989" s="2">
+        <v>45698.90981481481</v>
+      </c>
+      <c r="F989">
+        <v>3.53</v>
+      </c>
+      <c r="G989" t="s">
+        <v>998</v>
+      </c>
+      <c r="H989">
+        <v>-34.76497</v>
+      </c>
+      <c r="I989">
+        <v>-55.753504</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9">
+      <c r="A990">
+        <v>568</v>
+      </c>
+      <c r="B990" t="s">
+        <v>9</v>
+      </c>
+      <c r="C990" t="s">
+        <v>14</v>
+      </c>
+      <c r="D990" s="2">
+        <v>45698.90981481481</v>
+      </c>
+      <c r="E990" s="2">
+        <v>45698.9203587963</v>
+      </c>
+      <c r="F990">
+        <v>15.18</v>
+      </c>
+      <c r="G990" t="s">
+        <v>999</v>
+      </c>
+      <c r="H990">
+        <v>-34.771109</v>
+      </c>
+      <c r="I990">
+        <v>-55.762007</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9">
+      <c r="A991">
+        <v>569</v>
+      </c>
+      <c r="B991" t="s">
+        <v>9</v>
+      </c>
+      <c r="C991" t="s">
+        <v>13</v>
+      </c>
+      <c r="D991" s="2">
+        <v>45698.9203587963</v>
+      </c>
+      <c r="E991" s="2">
+        <v>45698.92255787037</v>
+      </c>
+      <c r="F991">
+        <v>3.17</v>
+      </c>
+      <c r="G991" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H991">
+        <v>-34.771922</v>
+      </c>
+      <c r="I991">
+        <v>-55.761282</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9">
+      <c r="A992">
+        <v>570</v>
+      </c>
+      <c r="B992" t="s">
+        <v>9</v>
+      </c>
+      <c r="C992" t="s">
+        <v>14</v>
+      </c>
+      <c r="D992" s="2">
+        <v>45698.92255787037</v>
+      </c>
+      <c r="E992" s="2">
+        <v>45698.92916666667</v>
+      </c>
+      <c r="F992">
+        <v>9.52</v>
+      </c>
+      <c r="G992" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H992">
+        <v>-34.768774</v>
+      </c>
+      <c r="I992">
+        <v>-55.769817</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9">
+      <c r="A993">
+        <v>571</v>
+      </c>
+      <c r="B993" t="s">
+        <v>9</v>
+      </c>
+      <c r="C993" t="s">
+        <v>13</v>
+      </c>
+      <c r="D993" s="2">
+        <v>45698.92916666667</v>
+      </c>
+      <c r="E993" s="2">
+        <v>45698.93737268518</v>
+      </c>
+      <c r="F993">
+        <v>11.82</v>
+      </c>
+      <c r="G993" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H993">
+        <v>-34.76867</v>
+      </c>
+      <c r="I993">
+        <v>-55.769905</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9">
+      <c r="A994">
+        <v>572</v>
+      </c>
+      <c r="B994" t="s">
+        <v>9</v>
+      </c>
+      <c r="C994" t="s">
+        <v>14</v>
+      </c>
+      <c r="D994" s="2">
+        <v>45698.93737268518</v>
+      </c>
+      <c r="E994" s="2">
+        <v>45699.30266203704</v>
+      </c>
+      <c r="F994">
+        <v>526.02</v>
+      </c>
+      <c r="G994" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H994">
+        <v>-34.766382</v>
+      </c>
+      <c r="I994">
+        <v>-55.736052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Limpia/eliminados_filtrado_horario.xlsx
+++ b/data/Limpia/eliminados_filtrado_horario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1014">
   <si>
     <t>Indice</t>
   </si>
@@ -3026,6 +3026,36 @@
   </si>
   <si>
     <t>34.766382S,55.736052W</t>
+  </si>
+  <si>
+    <t>34.771120S,55.758045W</t>
+  </si>
+  <si>
+    <t>34.771959S,55.761222W</t>
+  </si>
+  <si>
+    <t>34.772634S,55.761827W</t>
+  </si>
+  <si>
+    <t>34.768857S,55.769612W</t>
+  </si>
+  <si>
+    <t>34.768864S,55.770267W</t>
+  </si>
+  <si>
+    <t>34.766382S,55.736087W</t>
+  </si>
+  <si>
+    <t>34.766435S,55.736254W</t>
+  </si>
+  <si>
+    <t>34.764818S,55.752244W</t>
+  </si>
+  <si>
+    <t>34.764902S,55.752482W</t>
+  </si>
+  <si>
+    <t>34.766450S,55.736050W</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32219,6 +32249,296 @@
         <v>-55.736052</v>
       </c>
     </row>
+    <row r="995" spans="1:9">
+      <c r="A995">
+        <v>621</v>
+      </c>
+      <c r="B995" t="s">
+        <v>9</v>
+      </c>
+      <c r="C995" t="s">
+        <v>13</v>
+      </c>
+      <c r="D995" s="2">
+        <v>45699.77126157407</v>
+      </c>
+      <c r="E995" s="2">
+        <v>45699.77284722222</v>
+      </c>
+      <c r="F995">
+        <v>2.28</v>
+      </c>
+      <c r="G995" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H995">
+        <v>-34.77112</v>
+      </c>
+      <c r="I995">
+        <v>-55.758045</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9">
+      <c r="A996">
+        <v>622</v>
+      </c>
+      <c r="B996" t="s">
+        <v>9</v>
+      </c>
+      <c r="C996" t="s">
+        <v>14</v>
+      </c>
+      <c r="D996" s="2">
+        <v>45699.77284722222</v>
+      </c>
+      <c r="E996" s="2">
+        <v>45699.7825</v>
+      </c>
+      <c r="F996">
+        <v>13.9</v>
+      </c>
+      <c r="G996" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H996">
+        <v>-34.771959</v>
+      </c>
+      <c r="I996">
+        <v>-55.761222</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9">
+      <c r="A997">
+        <v>623</v>
+      </c>
+      <c r="B997" t="s">
+        <v>9</v>
+      </c>
+      <c r="C997" t="s">
+        <v>13</v>
+      </c>
+      <c r="D997" s="2">
+        <v>45699.7825</v>
+      </c>
+      <c r="E997" s="2">
+        <v>45699.78416666666</v>
+      </c>
+      <c r="F997">
+        <v>2.4</v>
+      </c>
+      <c r="G997" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H997">
+        <v>-34.772634</v>
+      </c>
+      <c r="I997">
+        <v>-55.761827</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9">
+      <c r="A998">
+        <v>624</v>
+      </c>
+      <c r="B998" t="s">
+        <v>9</v>
+      </c>
+      <c r="C998" t="s">
+        <v>14</v>
+      </c>
+      <c r="D998" s="2">
+        <v>45699.78416666666</v>
+      </c>
+      <c r="E998" s="2">
+        <v>45699.80545138889</v>
+      </c>
+      <c r="F998">
+        <v>30.65</v>
+      </c>
+      <c r="G998" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H998">
+        <v>-34.768857</v>
+      </c>
+      <c r="I998">
+        <v>-55.769612</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9">
+      <c r="A999">
+        <v>625</v>
+      </c>
+      <c r="B999" t="s">
+        <v>9</v>
+      </c>
+      <c r="C999" t="s">
+        <v>13</v>
+      </c>
+      <c r="D999" s="2">
+        <v>45699.80545138889</v>
+      </c>
+      <c r="E999" s="2">
+        <v>45699.81300925926</v>
+      </c>
+      <c r="F999">
+        <v>10.88</v>
+      </c>
+      <c r="G999" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H999">
+        <v>-34.768864</v>
+      </c>
+      <c r="I999">
+        <v>-55.770267</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9">
+      <c r="A1000">
+        <v>626</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1000" s="2">
+        <v>45699.81300925926</v>
+      </c>
+      <c r="E1000" s="2">
+        <v>45699.85653935185</v>
+      </c>
+      <c r="F1000">
+        <v>62.68</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H1000">
+        <v>-34.766382</v>
+      </c>
+      <c r="I1000">
+        <v>-55.736087</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9">
+      <c r="A1001">
+        <v>627</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1001" s="2">
+        <v>45699.85653935185</v>
+      </c>
+      <c r="E1001" s="2">
+        <v>45699.85959490741</v>
+      </c>
+      <c r="F1001">
+        <v>4.4</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H1001">
+        <v>-34.766435</v>
+      </c>
+      <c r="I1001">
+        <v>-55.736254</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9">
+      <c r="A1002">
+        <v>628</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1002" s="2">
+        <v>45699.85959490741</v>
+      </c>
+      <c r="E1002" s="2">
+        <v>45699.91097222222</v>
+      </c>
+      <c r="F1002">
+        <v>73.98</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H1002">
+        <v>-34.764818</v>
+      </c>
+      <c r="I1002">
+        <v>-55.752244</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9">
+      <c r="A1003">
+        <v>629</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1003" s="2">
+        <v>45699.91097222222</v>
+      </c>
+      <c r="E1003" s="2">
+        <v>45699.91533564815</v>
+      </c>
+      <c r="F1003">
+        <v>6.28</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H1003">
+        <v>-34.764902</v>
+      </c>
+      <c r="I1003">
+        <v>-55.752482</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9">
+      <c r="A1004">
+        <v>630</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1004" s="2">
+        <v>45699.91533564815</v>
+      </c>
+      <c r="E1004" s="2">
+        <v>45700.3089699074</v>
+      </c>
+      <c r="F1004">
+        <v>566.83</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H1004">
+        <v>-34.76645</v>
+      </c>
+      <c r="I1004">
+        <v>-55.73605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Limpia/eliminados_filtrado_horario.xlsx
+++ b/data/Limpia/eliminados_filtrado_horario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="1022">
   <si>
     <t>Indice</t>
   </si>
@@ -3056,6 +3056,30 @@
   </si>
   <si>
     <t>34.766450S,55.736050W</t>
+  </si>
+  <si>
+    <t>34.766409S,55.736229W</t>
+  </si>
+  <si>
+    <t>34.773507S,55.734589W</t>
+  </si>
+  <si>
+    <t>34.773344S,55.734215W</t>
+  </si>
+  <si>
+    <t>34.766349S,55.736144W</t>
+  </si>
+  <si>
+    <t>34.766418S,55.736212W</t>
+  </si>
+  <si>
+    <t>34.780070S,55.758635W</t>
+  </si>
+  <si>
+    <t>34.780085S,55.758385W</t>
+  </si>
+  <si>
+    <t>34.766439S,55.736055W</t>
   </si>
 </sst>
 </file>
@@ -3417,7 +3441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1004"/>
+  <dimension ref="A1:I1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32539,6 +32563,238 @@
         <v>-55.73605</v>
       </c>
     </row>
+    <row r="1005" spans="1:9">
+      <c r="A1005">
+        <v>673</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1005" s="2">
+        <v>45700.84245370371</v>
+      </c>
+      <c r="E1005" s="2">
+        <v>45700.86960648148</v>
+      </c>
+      <c r="F1005">
+        <v>39.1</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H1005">
+        <v>-34.766409</v>
+      </c>
+      <c r="I1005">
+        <v>-55.736229</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9">
+      <c r="A1006">
+        <v>674</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>45700.86960648148</v>
+      </c>
+      <c r="E1006" s="2">
+        <v>45700.87403935185</v>
+      </c>
+      <c r="F1006">
+        <v>6.38</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H1006">
+        <v>-34.773507</v>
+      </c>
+      <c r="I1006">
+        <v>-55.734589</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9">
+      <c r="A1007">
+        <v>675</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1007" s="2">
+        <v>45700.87403935185</v>
+      </c>
+      <c r="E1007" s="2">
+        <v>45700.87584490741</v>
+      </c>
+      <c r="F1007">
+        <v>2.6</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H1007">
+        <v>-34.773344</v>
+      </c>
+      <c r="I1007">
+        <v>-55.734215</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9">
+      <c r="A1008">
+        <v>676</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1008" s="2">
+        <v>45700.87584490741</v>
+      </c>
+      <c r="E1008" s="2">
+        <v>45700.88811342593</v>
+      </c>
+      <c r="F1008">
+        <v>17.67</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H1008">
+        <v>-34.766349</v>
+      </c>
+      <c r="I1008">
+        <v>-55.736144</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9">
+      <c r="A1009">
+        <v>677</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1009" s="2">
+        <v>45700.88811342593</v>
+      </c>
+      <c r="E1009" s="2">
+        <v>45700.89244212963</v>
+      </c>
+      <c r="F1009">
+        <v>6.23</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H1009">
+        <v>-34.766418</v>
+      </c>
+      <c r="I1009">
+        <v>-55.736212</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9">
+      <c r="A1010">
+        <v>678</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1010" s="2">
+        <v>45700.89244212963</v>
+      </c>
+      <c r="E1010" s="2">
+        <v>45700.91900462963</v>
+      </c>
+      <c r="F1010">
+        <v>38.25</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H1010">
+        <v>-34.78007</v>
+      </c>
+      <c r="I1010">
+        <v>-55.758635</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9">
+      <c r="A1011">
+        <v>679</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1011" s="2">
+        <v>45700.91900462963</v>
+      </c>
+      <c r="E1011" s="2">
+        <v>45700.92322916666</v>
+      </c>
+      <c r="F1011">
+        <v>6.08</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1011">
+        <v>-34.780085</v>
+      </c>
+      <c r="I1011">
+        <v>-55.758385</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9">
+      <c r="A1012">
+        <v>680</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1012" s="2">
+        <v>45700.92322916666</v>
+      </c>
+      <c r="E1012" s="2">
+        <v>45701.30789351852</v>
+      </c>
+      <c r="F1012">
+        <v>553.92</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H1012">
+        <v>-34.766439</v>
+      </c>
+      <c r="I1012">
+        <v>-55.736055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Limpia/eliminados_filtrado_horario.xlsx
+++ b/data/Limpia/eliminados_filtrado_horario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="1056">
   <si>
     <t>Indice</t>
   </si>
@@ -3080,6 +3080,108 @@
   </si>
   <si>
     <t>34.766439S,55.736055W</t>
+  </si>
+  <si>
+    <t>34.771820S,55.761014W</t>
+  </si>
+  <si>
+    <t>34.766392S,55.736052W</t>
+  </si>
+  <si>
+    <t>34.766464S,55.736402W</t>
+  </si>
+  <si>
+    <t>34.764704S,55.751632W</t>
+  </si>
+  <si>
+    <t>34.764977S,55.753487W</t>
+  </si>
+  <si>
+    <t>34.766365S,55.736112W</t>
+  </si>
+  <si>
+    <t>34.766424S,55.736189W</t>
+  </si>
+  <si>
+    <t>34.770842S,55.815939W</t>
+  </si>
+  <si>
+    <t>34.770860S,55.815855W</t>
+  </si>
+  <si>
+    <t>34.766484S,55.736022W</t>
+  </si>
+  <si>
+    <t>34.771264S,55.758347W</t>
+  </si>
+  <si>
+    <t>34.766595S,55.742845W</t>
+  </si>
+  <si>
+    <t>34.766702S,55.742800W</t>
+  </si>
+  <si>
+    <t>34.766379S,55.736124W</t>
+  </si>
+  <si>
+    <t>34.766223S,55.735764W</t>
+  </si>
+  <si>
+    <t>34.758760S,55.700585W</t>
+  </si>
+  <si>
+    <t>34.757412S,55.701047W</t>
+  </si>
+  <si>
+    <t>34.766477S,55.736037W</t>
+  </si>
+  <si>
+    <t>34.758177S,55.774597W</t>
+  </si>
+  <si>
+    <t>34.763094S,55.777927W</t>
+  </si>
+  <si>
+    <t>34.763085S,55.777849W</t>
+  </si>
+  <si>
+    <t>34.768673S,55.770135W</t>
+  </si>
+  <si>
+    <t>34.768705S,55.770059W</t>
+  </si>
+  <si>
+    <t>34.766684S,55.736862W</t>
+  </si>
+  <si>
+    <t>34.766397S,55.736309W</t>
+  </si>
+  <si>
+    <t>34.746022S,55.708777W</t>
+  </si>
+  <si>
+    <t>34.746080S,55.708787W</t>
+  </si>
+  <si>
+    <t>34.768760S,55.769924W</t>
+  </si>
+  <si>
+    <t>34.768707S,55.769937W</t>
+  </si>
+  <si>
+    <t>34.766375S,55.736115W</t>
+  </si>
+  <si>
+    <t>34.766410S,55.736129W</t>
+  </si>
+  <si>
+    <t>34.767747S,55.767105W</t>
+  </si>
+  <si>
+    <t>34.767590S,55.767342W</t>
+  </si>
+  <si>
+    <t>34.766390S,55.736079W</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1012"/>
+  <dimension ref="A1:I1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32795,6 +32897,992 @@
         <v>-55.736055</v>
       </c>
     </row>
+    <row r="1013" spans="1:9">
+      <c r="A1013">
+        <v>729</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1013" s="2">
+        <v>45701.78405092593</v>
+      </c>
+      <c r="E1013" s="2">
+        <v>45701.78982638889</v>
+      </c>
+      <c r="F1013">
+        <v>8.32</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H1013">
+        <v>-34.77182</v>
+      </c>
+      <c r="I1013">
+        <v>-55.761014</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9">
+      <c r="A1014">
+        <v>730</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1014" s="2">
+        <v>45701.78982638889</v>
+      </c>
+      <c r="E1014" s="2">
+        <v>45701.83655092592</v>
+      </c>
+      <c r="F1014">
+        <v>67.28</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H1014">
+        <v>-34.766392</v>
+      </c>
+      <c r="I1014">
+        <v>-55.736052</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9">
+      <c r="A1015">
+        <v>731</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1015" s="2">
+        <v>45701.83655092592</v>
+      </c>
+      <c r="E1015" s="2">
+        <v>45701.83936342593</v>
+      </c>
+      <c r="F1015">
+        <v>4.05</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H1015">
+        <v>-34.766464</v>
+      </c>
+      <c r="I1015">
+        <v>-55.736402</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9">
+      <c r="A1016">
+        <v>732</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1016" s="2">
+        <v>45701.83936342593</v>
+      </c>
+      <c r="E1016" s="2">
+        <v>45701.86908564815</v>
+      </c>
+      <c r="F1016">
+        <v>42.8</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H1016">
+        <v>-34.764704</v>
+      </c>
+      <c r="I1016">
+        <v>-55.751632</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9">
+      <c r="A1017">
+        <v>733</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1017" s="2">
+        <v>45701.86908564815</v>
+      </c>
+      <c r="E1017" s="2">
+        <v>45701.87226851852</v>
+      </c>
+      <c r="F1017">
+        <v>4.58</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H1017">
+        <v>-34.764977</v>
+      </c>
+      <c r="I1017">
+        <v>-55.753487</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9">
+      <c r="A1018">
+        <v>734</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1018" s="2">
+        <v>45701.87226851852</v>
+      </c>
+      <c r="E1018" s="2">
+        <v>45701.90760416666</v>
+      </c>
+      <c r="F1018">
+        <v>50.88</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H1018">
+        <v>-34.766365</v>
+      </c>
+      <c r="I1018">
+        <v>-55.736112</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9">
+      <c r="A1019">
+        <v>735</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1019" s="2">
+        <v>45701.90760416666</v>
+      </c>
+      <c r="E1019" s="2">
+        <v>45701.91892361111</v>
+      </c>
+      <c r="F1019">
+        <v>16.3</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H1019">
+        <v>-34.766424</v>
+      </c>
+      <c r="I1019">
+        <v>-55.736189</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9">
+      <c r="A1020">
+        <v>736</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1020" s="2">
+        <v>45701.91892361111</v>
+      </c>
+      <c r="E1020" s="2">
+        <v>45702.01210648148</v>
+      </c>
+      <c r="F1020">
+        <v>134.18</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H1020">
+        <v>-34.770842</v>
+      </c>
+      <c r="I1020">
+        <v>-55.815939</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9">
+      <c r="A1021">
+        <v>737</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1021" s="2">
+        <v>45702.01210648148</v>
+      </c>
+      <c r="E1021" s="2">
+        <v>45702.01821759259</v>
+      </c>
+      <c r="F1021">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H1021">
+        <v>-34.77086</v>
+      </c>
+      <c r="I1021">
+        <v>-55.815855</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9">
+      <c r="A1022">
+        <v>738</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1022" s="2">
+        <v>45702.01821759259</v>
+      </c>
+      <c r="E1022" s="2">
+        <v>45702.30438657408</v>
+      </c>
+      <c r="F1022">
+        <v>412.08</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H1022">
+        <v>-34.766484</v>
+      </c>
+      <c r="I1022">
+        <v>-55.736022</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9">
+      <c r="A1023">
+        <v>797</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1023" s="2">
+        <v>45702.7841550926</v>
+      </c>
+      <c r="E1023" s="2">
+        <v>45702.79383101852</v>
+      </c>
+      <c r="F1023">
+        <v>13.93</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H1023">
+        <v>-34.771264</v>
+      </c>
+      <c r="I1023">
+        <v>-55.758347</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9">
+      <c r="A1024">
+        <v>798</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1024" s="2">
+        <v>45702.79383101852</v>
+      </c>
+      <c r="E1024" s="2">
+        <v>45702.80134259259</v>
+      </c>
+      <c r="F1024">
+        <v>10.82</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H1024">
+        <v>-34.766595</v>
+      </c>
+      <c r="I1024">
+        <v>-55.742845</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9">
+      <c r="A1025">
+        <v>799</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1025" s="2">
+        <v>45702.80134259259</v>
+      </c>
+      <c r="E1025" s="2">
+        <v>45702.80266203704</v>
+      </c>
+      <c r="F1025">
+        <v>1.9</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1025">
+        <v>-34.766702</v>
+      </c>
+      <c r="I1025">
+        <v>-55.7428</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9">
+      <c r="A1026">
+        <v>800</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1026" s="2">
+        <v>45702.80266203704</v>
+      </c>
+      <c r="E1026" s="2">
+        <v>45702.82195601852</v>
+      </c>
+      <c r="F1026">
+        <v>27.78</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H1026">
+        <v>-34.766379</v>
+      </c>
+      <c r="I1026">
+        <v>-55.736124</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9">
+      <c r="A1027">
+        <v>801</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1027" s="2">
+        <v>45702.82195601852</v>
+      </c>
+      <c r="E1027" s="2">
+        <v>45702.82583333334</v>
+      </c>
+      <c r="F1027">
+        <v>5.58</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1027">
+        <v>-34.766223</v>
+      </c>
+      <c r="I1027">
+        <v>-55.735764</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9">
+      <c r="A1028">
+        <v>802</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1028" s="2">
+        <v>45702.82583333334</v>
+      </c>
+      <c r="E1028" s="2">
+        <v>45702.85295138889</v>
+      </c>
+      <c r="F1028">
+        <v>39.05</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H1028">
+        <v>-34.75876</v>
+      </c>
+      <c r="I1028">
+        <v>-55.700585</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9">
+      <c r="A1029">
+        <v>803</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1029" s="2">
+        <v>45702.85295138889</v>
+      </c>
+      <c r="E1029" s="2">
+        <v>45702.8596412037</v>
+      </c>
+      <c r="F1029">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1029">
+        <v>-34.757412</v>
+      </c>
+      <c r="I1029">
+        <v>-55.701047</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9">
+      <c r="A1030">
+        <v>804</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1030" s="2">
+        <v>45702.8596412037</v>
+      </c>
+      <c r="E1030" s="2">
+        <v>45703.32033564815</v>
+      </c>
+      <c r="F1030">
+        <v>663.4</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H1030">
+        <v>-34.766477</v>
+      </c>
+      <c r="I1030">
+        <v>-55.736037</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9">
+      <c r="A1031">
+        <v>855</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1031" s="2">
+        <v>45703.83001157407</v>
+      </c>
+      <c r="E1031" s="2">
+        <v>45703.8321412037</v>
+      </c>
+      <c r="F1031">
+        <v>3.07</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H1031">
+        <v>-34.758177</v>
+      </c>
+      <c r="I1031">
+        <v>-55.774597</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9">
+      <c r="A1032">
+        <v>856</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1032" s="2">
+        <v>45703.8321412037</v>
+      </c>
+      <c r="E1032" s="2">
+        <v>45703.83549768518</v>
+      </c>
+      <c r="F1032">
+        <v>4.83</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1032">
+        <v>-34.763094</v>
+      </c>
+      <c r="I1032">
+        <v>-55.777927</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9">
+      <c r="A1033">
+        <v>857</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1033" s="2">
+        <v>45703.83549768518</v>
+      </c>
+      <c r="E1033" s="2">
+        <v>45703.8384375</v>
+      </c>
+      <c r="F1033">
+        <v>4.23</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H1033">
+        <v>-34.763085</v>
+      </c>
+      <c r="I1033">
+        <v>-55.777849</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9">
+      <c r="A1034">
+        <v>858</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1034" s="2">
+        <v>45703.8384375</v>
+      </c>
+      <c r="E1034" s="2">
+        <v>45703.85466435185</v>
+      </c>
+      <c r="F1034">
+        <v>23.37</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H1034">
+        <v>-34.768673</v>
+      </c>
+      <c r="I1034">
+        <v>-55.770135</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9">
+      <c r="A1035">
+        <v>859</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1035" s="2">
+        <v>45703.85466435185</v>
+      </c>
+      <c r="E1035" s="2">
+        <v>45703.85809027778</v>
+      </c>
+      <c r="F1035">
+        <v>4.93</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H1035">
+        <v>-34.768705</v>
+      </c>
+      <c r="I1035">
+        <v>-55.770059</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9">
+      <c r="A1036">
+        <v>860</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1036" s="2">
+        <v>45703.85809027778</v>
+      </c>
+      <c r="E1036" s="2">
+        <v>45703.86284722222</v>
+      </c>
+      <c r="F1036">
+        <v>6.85</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H1036">
+        <v>-34.766684</v>
+      </c>
+      <c r="I1036">
+        <v>-55.736862</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9">
+      <c r="A1037">
+        <v>861</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1037" s="2">
+        <v>45703.86284722222</v>
+      </c>
+      <c r="E1037" s="2">
+        <v>45703.86927083333</v>
+      </c>
+      <c r="F1037">
+        <v>9.25</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H1037">
+        <v>-34.766397</v>
+      </c>
+      <c r="I1037">
+        <v>-55.736309</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9">
+      <c r="A1038">
+        <v>862</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1038" s="2">
+        <v>45703.86927083333</v>
+      </c>
+      <c r="E1038" s="2">
+        <v>45703.87527777778</v>
+      </c>
+      <c r="F1038">
+        <v>8.65</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H1038">
+        <v>-34.746022</v>
+      </c>
+      <c r="I1038">
+        <v>-55.708777</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9">
+      <c r="A1039">
+        <v>863</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1039" s="2">
+        <v>45703.87527777778</v>
+      </c>
+      <c r="E1039" s="2">
+        <v>45703.88197916667</v>
+      </c>
+      <c r="F1039">
+        <v>9.65</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H1039">
+        <v>-34.74608</v>
+      </c>
+      <c r="I1039">
+        <v>-55.708787</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9">
+      <c r="A1040">
+        <v>864</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1040" s="2">
+        <v>45703.88197916667</v>
+      </c>
+      <c r="E1040" s="2">
+        <v>45704.00175925926</v>
+      </c>
+      <c r="F1040">
+        <v>172.48</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1040">
+        <v>-34.76876</v>
+      </c>
+      <c r="I1040">
+        <v>-55.769924</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9">
+      <c r="A1041">
+        <v>865</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1041" s="2">
+        <v>45704.00175925926</v>
+      </c>
+      <c r="E1041" s="2">
+        <v>45704.00587962963</v>
+      </c>
+      <c r="F1041">
+        <v>5.93</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H1041">
+        <v>-34.768707</v>
+      </c>
+      <c r="I1041">
+        <v>-55.769937</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9">
+      <c r="A1042">
+        <v>866</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1042" s="2">
+        <v>45704.00587962963</v>
+      </c>
+      <c r="E1042" s="2">
+        <v>45704.38931712963</v>
+      </c>
+      <c r="F1042">
+        <v>552.15</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1042">
+        <v>-34.766375</v>
+      </c>
+      <c r="I1042">
+        <v>-55.736115</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9">
+      <c r="A1043">
+        <v>873</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1043" s="2">
+        <v>45704.90704861111</v>
+      </c>
+      <c r="E1043" s="2">
+        <v>45704.91423611111</v>
+      </c>
+      <c r="F1043">
+        <v>10.35</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H1043">
+        <v>-34.76641</v>
+      </c>
+      <c r="I1043">
+        <v>-55.736129</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9">
+      <c r="A1044">
+        <v>874</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1044" s="2">
+        <v>45704.91423611111</v>
+      </c>
+      <c r="E1044" s="2">
+        <v>45704.9278125</v>
+      </c>
+      <c r="F1044">
+        <v>19.55</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H1044">
+        <v>-34.767747</v>
+      </c>
+      <c r="I1044">
+        <v>-55.767105</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9">
+      <c r="A1045">
+        <v>875</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1045" s="2">
+        <v>45704.9278125</v>
+      </c>
+      <c r="E1045" s="2">
+        <v>45704.93653935185</v>
+      </c>
+      <c r="F1045">
+        <v>12.57</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H1045">
+        <v>-34.76759</v>
+      </c>
+      <c r="I1045">
+        <v>-55.767342</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9">
+      <c r="A1046">
+        <v>876</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1046" s="2">
+        <v>45704.93653935185</v>
+      </c>
+      <c r="E1046" s="2">
+        <v>45705.2940625</v>
+      </c>
+      <c r="F1046">
+        <v>514.83</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H1046">
+        <v>-34.76639</v>
+      </c>
+      <c r="I1046">
+        <v>-55.736079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
